--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -102,11 +102,9 @@
       <rPr>
         <strike/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.设置头像功能</t>
     </r>
@@ -115,7 +113,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -142,11 +139,9 @@
       <rPr>
         <strike/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>3.投票功能（选举会长)</t>
     </r>
@@ -155,7 +150,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,51 +175,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,13 +220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +304,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -605,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -619,7 +602,7 @@
     <col min="3" max="3" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -630,7 +613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="50.1" customHeight="1">
+    <row r="2" spans="1:6" ht="50.1" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -641,7 +624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="69.75" customHeight="1">
+    <row r="3" spans="1:6" ht="69.75" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -652,7 +635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.75" customHeight="1">
+    <row r="4" spans="1:6" ht="72.75" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -663,7 +646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="50.1" customHeight="1">
+    <row r="5" spans="1:6" ht="50.1" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -674,7 +657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="50.1" customHeight="1">
+    <row r="6" spans="1:6" ht="50.1" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -685,7 +668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="50.1" customHeight="1">
+    <row r="7" spans="1:6" ht="50.1" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -695,8 +678,11 @@
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="50.1" customHeight="1">
+      <c r="F7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.1" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -707,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="50.1" customHeight="1">
+    <row r="9" spans="1:6" ht="50.1" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -718,7 +704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="50.1" customHeight="1">
+    <row r="10" spans="1:6" ht="50.1" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -729,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="50.1" customHeight="1">
+    <row r="11" spans="1:6" ht="50.1" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -740,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="50.1" customHeight="1">
+    <row r="12" spans="1:6" ht="50.1" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>

--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>11421</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="50.1" customHeight="1">

--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -602,7 +602,7 @@
     <col min="3" max="3" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50.1" customHeight="1">
+    <row r="2" spans="1:3" ht="50.1" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -624,7 +624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="69.75" customHeight="1">
+    <row r="3" spans="1:3" ht="69.75" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -635,7 +635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72.75" customHeight="1">
+    <row r="4" spans="1:3" ht="72.75" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -646,7 +646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="50.1" customHeight="1">
+    <row r="5" spans="1:3" ht="50.1" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="50.1" customHeight="1">
+    <row r="6" spans="1:3" ht="50.1" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="50.1" customHeight="1">
+    <row r="7" spans="1:3" ht="50.1" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -678,11 +678,8 @@
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
-        <v>11421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="50.1" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="50.1" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -693,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="50.1" customHeight="1">
+    <row r="9" spans="1:3" ht="50.1" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -704,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="50.1" customHeight="1">
+    <row r="10" spans="1:3" ht="50.1" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -715,7 +712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="50.1" customHeight="1">
+    <row r="11" spans="1:3" ht="50.1" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -726,7 +723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="50.1" customHeight="1">
+    <row r="12" spans="1:3" ht="50.1" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>

--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -155,14 +155,40 @@
       </rPr>
       <t xml:space="preserve">
 4.会长任命官员功能
-5.公会竞技场出战任命</t>
+</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.竞技场奖励发放功能
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.公会竞技场出战任命</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.竞技场奖励发放功能
 2.玩家队伍进入竞技场后保存队伍功能
-3.公会竞技场</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.公会竞技场</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +235,23 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,6 +335,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,8 +637,8 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -620,7 +666,7 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -631,7 +677,7 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
     </row>

--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -131,8 +131,71 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1.拍卖功能
-2.公会仓库功能
+      <t xml:space="preserve">1.竞技场奖励发放功能
+2.玩家队伍进入竞技场后保存队伍功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.公会竞技场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.拍卖功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.公会仓库功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -168,26 +231,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>5.公会竞技场出战任命</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.竞技场奖励发放功能
-2.玩家队伍进入竞技场后保存队伍功能
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.公会竞技场</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -667,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69.75" customHeight="1">
@@ -678,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.75" customHeight="1">

--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$28</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>竞技场</t>
   </si>
@@ -30,208 +33,170 @@
     <t>邮箱</t>
   </si>
   <si>
+    <t>NO.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储精力药水，存储奖励等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌组合技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉拍卖功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场奖励发放功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家队伍进入竞技场后保存队伍功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会长任命官员功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">拍卖功能
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会仓库功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票功能（选举会长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会竞技场出战任命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台设置遭遇机率，宝箱机率等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台添加NPC（包括选卡片，卡片等级等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机遭遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机刷新资源，宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力值计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">身价列表功能
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择坐骑功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家私信功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">被邀请加入公会邮件
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>旅馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 卡牌</t>
-  </si>
-  <si>
-    <t>NO.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储精力药水，存储奖励等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.卡牌满屏显示功能
-2.卡牌组合技能查看
-3.卡牌角色简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌组合技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.升级功能
-2.升阶功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉拍卖功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.身价列表功能
-2.商店功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.被邀请加入公会邮件
-2.玩家私信功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.设置头像功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.选择坐骑功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.精力值计算
-2.随机刷新资源，宝箱
-3.随机遭遇
-4.后台添加NPC（包括选卡片，卡片等级等）
-5.后台设置遭遇机率，宝箱机率等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.竞技场奖励发放功能
-2.玩家队伍进入竞技场后保存队伍功能
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.公会竞技场</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.拍卖功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.公会仓库功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.投票功能（选举会长)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.会长任命官员功能
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.公会竞技场出战任命</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌组合技能查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌满屏显示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌角色简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置头像功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +232,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -275,12 +239,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -290,11 +264,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -306,18 +279,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor theme="4" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -340,47 +313,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -389,6 +420,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF82D07E"/>
+      <color rgb="FF9DDFBE"/>
+      <color rgb="FF52C68C"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -677,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -691,139 +729,324 @@
     <col min="3" max="3" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="50.1" customHeight="1">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72.75" customHeight="1">
-      <c r="A4" s="6">
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A6" s="6">
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A7" s="7">
+      <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1">
+      <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A8" s="6">
+      <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A9" s="6">
+      <c r="C19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A10" s="6">
+      <c r="D19" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1">
+      <c r="A20" s="6">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="50.1" customHeight="1">
+      <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1">
+      <c r="A23" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A11" s="6">
+      <c r="B23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="50.1" customHeight="1">
+      <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A12" s="6">
+      <c r="B25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1">
+      <c r="A26" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D28"/>
+  <mergeCells count="16">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A10:A14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>竞技场</t>
   </si>
@@ -375,44 +375,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -730,95 +730,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -826,10 +828,10 @@
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -840,8 +842,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
@@ -850,8 +852,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
@@ -860,8 +862,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
@@ -870,7 +872,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1">
-      <c r="A14" s="8"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="14"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
@@ -880,10 +882,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -892,7 +894,7 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="18" customHeight="1">
-      <c r="A16" s="8"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
         <v>30</v>
@@ -900,23 +902,23 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4"/>
@@ -925,21 +927,21 @@
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="15">
         <v>7</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -948,7 +950,7 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
         <v>28</v>
@@ -959,7 +961,7 @@
       <c r="A22" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -968,10 +970,10 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="15">
         <v>9</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -980,7 +982,7 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="14"/>
       <c r="C24" s="5" t="s">
         <v>38</v>
@@ -991,7 +993,7 @@
       <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1000,10 +1002,10 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="15">
         <v>11</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1012,15 +1014,15 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="14"/>
       <c r="C28" s="5" t="s">
         <v>41</v>
@@ -1030,12 +1032,6 @@
   </sheetData>
   <autoFilter ref="A1:D28"/>
   <mergeCells count="16">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A15:A16"/>
@@ -1046,6 +1042,12 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/剩余功能列表.xlsx
+++ b/剩余功能列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>竞技场</t>
   </si>
@@ -193,6 +193,26 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用固定机率的形式，设置机率功能留待下一版本再做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外地图构建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -727,9 +747,11 @@
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="60.875" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -742,8 +764,11 @@
       <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -756,16 +781,18 @@
       <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="14"/>
       <c r="C4" s="11" t="s">
@@ -774,8 +801,9 @@
       <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -788,8 +816,9 @@
       <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="17"/>
       <c r="C6" s="11" t="s">
@@ -798,8 +827,9 @@
       <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="17"/>
       <c r="C7" s="11" t="s">
@@ -808,8 +838,9 @@
       <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="17"/>
       <c r="C8" s="11" t="s">
@@ -818,16 +849,18 @@
       <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -840,214 +873,246 @@
       <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14"/>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1">
-      <c r="A15" s="15">
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="15">
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="10" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1">
-      <c r="A19" s="3">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="33" customHeight="1">
+      <c r="A20" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1">
-      <c r="A20" s="15">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="15">
         <v>7</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="50.1" customHeight="1">
-      <c r="A22" s="3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="50.1" customHeight="1">
+      <c r="A23" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" customHeight="1">
-      <c r="A23" s="15">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1">
+      <c r="A24" s="15">
         <v>9</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="50.1" customHeight="1">
-      <c r="A25" s="3">
+      <c r="D25" s="2"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="50.1" customHeight="1">
+      <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1">
-      <c r="A26" s="15">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1">
+      <c r="A27" s="15">
         <v>11</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28"/>
+  <autoFilter ref="A1:D29"/>
   <mergeCells count="16">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
